--- a/pp_hadron/expdata/10005.xlsx
+++ b/pp_hadron/expdata/10005.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17540"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>pion_+-</t>
   </si>
   <si>
-    <t>dN/N_inel-dy-dpT</t>
+    <t>d2N/N_inel-dy-dpt</t>
   </si>
   <si>
     <t>pb</t>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,6 +104,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -111,15 +119,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -141,6 +142,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -157,21 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -180,16 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,16 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,16 +218,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +254,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -269,7 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,19 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +299,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,13 +335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,19 +365,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,67 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +456,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,123 +548,114 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -664,48 +664,45 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1096,7 +1093,7 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1149,7 +1146,7 @@
       <c r="P2" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1202,7 +1199,7 @@
       <c r="P3" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1255,7 +1252,7 @@
       <c r="P4" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1308,7 +1305,7 @@
       <c r="P5" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1361,7 +1358,7 @@
       <c r="P6" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1414,7 +1411,7 @@
       <c r="P7" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1467,7 +1464,7 @@
       <c r="P8" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1520,7 +1517,7 @@
       <c r="P9" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1573,7 +1570,7 @@
       <c r="P10" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1626,7 +1623,7 @@
       <c r="P11" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1679,7 +1676,7 @@
       <c r="P12" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1732,7 +1729,7 @@
       <c r="P13" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1785,7 +1782,7 @@
       <c r="P14" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1838,7 +1835,7 @@
       <c r="P15" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1891,7 +1888,7 @@
       <c r="P16" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1944,7 +1941,7 @@
       <c r="P17" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1997,7 +1994,7 @@
       <c r="P18" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2050,7 +2047,7 @@
       <c r="P19" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2103,7 +2100,7 @@
       <c r="P20" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2156,7 +2153,7 @@
       <c r="P21" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2209,7 +2206,7 @@
       <c r="P22" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2262,7 +2259,7 @@
       <c r="P23" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2315,7 +2312,7 @@
       <c r="P24" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2368,7 +2365,7 @@
       <c r="P25" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2421,7 +2418,7 @@
       <c r="P26" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2474,7 +2471,7 @@
       <c r="P27" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2527,7 +2524,7 @@
       <c r="P28" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2580,7 +2577,7 @@
       <c r="P29" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2633,7 +2630,7 @@
       <c r="P30" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2686,7 +2683,7 @@
       <c r="P31" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2739,7 +2736,7 @@
       <c r="P32" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2792,7 +2789,7 @@
       <c r="P33" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2845,7 +2842,7 @@
       <c r="P34" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2898,7 +2895,7 @@
       <c r="P35" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2951,7 +2948,7 @@
       <c r="P36" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3004,7 +3001,7 @@
       <c r="P37" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3057,7 +3054,7 @@
       <c r="P38" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3110,7 +3107,7 @@
       <c r="P39" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3163,7 +3160,7 @@
       <c r="P40" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3216,7 +3213,7 @@
       <c r="P41" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3269,7 +3266,7 @@
       <c r="P42" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3322,7 +3319,7 @@
       <c r="P43" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3375,7 +3372,7 @@
       <c r="P44" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3428,7 +3425,7 @@
       <c r="P45" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3481,7 +3478,7 @@
       <c r="P46" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3534,7 +3531,7 @@
       <c r="P47" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3587,7 +3584,7 @@
       <c r="P48" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="Q48" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3640,7 +3637,7 @@
       <c r="P49" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3693,7 +3690,7 @@
       <c r="P50" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="Q50" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3746,7 +3743,7 @@
       <c r="P51" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="Q51" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3799,7 +3796,7 @@
       <c r="P52" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3852,7 +3849,7 @@
       <c r="P53" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="Q53" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3905,7 +3902,7 @@
       <c r="P54" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="Q54" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3958,7 +3955,7 @@
       <c r="P55" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="Q55" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4011,7 +4008,7 @@
       <c r="P56" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="Q56" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4064,7 +4061,7 @@
       <c r="P57" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="Q57" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4117,7 +4114,7 @@
       <c r="P58" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4170,7 +4167,7 @@
       <c r="P59" s="2">
         <v>10.8</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="Q59" s="2" t="s">
         <v>22</v>
       </c>
     </row>
